--- a/Lib_Repo_Excel/FileExcel_Digisales/-SCD0230 - Searching profiling nasabah & tidak memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/-SCD0230 - Searching profiling nasabah & tidak memiliki sales kelolaan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A192D5D-A46B-4ED4-B635-272FF5FA4630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F98B2D-1AC1-4427-9CA6-F959A4983BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0230" sheetId="2" r:id="rId1"/>
@@ -100,13 +100,13 @@
 -Tidak tambah Nasabah ke family tree flagging</t>
   </si>
   <si>
-    <t>9448808661</t>
-  </si>
-  <si>
     <t>Sales SRM</t>
   </si>
   <si>
     <t>Sales CRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9166244046 </t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="7"/>
@@ -644,17 +644,17 @@
         <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3"/>
       <c r="L3">
-        <v>9315565540</v>
+        <v>10201330549</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3">
-        <v>9166244046</v>
+        <v>9448808661</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="2"/>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="L4">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="N4" s="14">
-        <v>9448808661</v>
+        <v>9936964558</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="3"/>
